--- a/neuralnets/Perceptron.xlsx
+++ b/neuralnets/Perceptron.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okursun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okursun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F708564-2995-A64C-A5F3-D7F35EC79965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC0E96-C244-374E-B68E-11B33F786827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{DBB71041-7A0A-1649-921F-C99747F45C7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>x1</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>loss</t>
+  </si>
+  <si>
+    <t>Learning rate:</t>
+  </si>
+  <si>
+    <t>Let's redo the computations using the updated weights</t>
+  </si>
+  <si>
+    <t>Use initial weights</t>
+  </si>
+  <si>
+    <t>0.8, 0.6 and -0.72</t>
+  </si>
+  <si>
+    <t>The left side shows the forward pass (prediction) and the right side shows the backward pass (weight updates)</t>
+  </si>
+  <si>
+    <t>***loss reduced</t>
+  </si>
+  <si>
+    <t>We just performed the forward pass this time but repeating the backward pass could reduce the loss further</t>
   </si>
 </sst>
 </file>
@@ -104,12 +125,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +178,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,60 +502,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70237DBF-67A2-D746-AD46-28EB491CBF4F}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -518,40 +576,41 @@
         <f>1/(1+EXP(-D2))</f>
         <v>0.32739298293223956</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
+        <f>IF(C2,-LN(E2),-LN(1-E2))</f>
+        <v>0.39659404698022432</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1">
         <f>C2-E2</f>
         <v>-0.32739298293223956</v>
       </c>
-      <c r="G2" s="1">
-        <f>$G$12*F2*A2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <f>$G$12*F2*B2</f>
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
-        <f>$G$12*F2</f>
+        <f>$H$12*H2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>$H$12*H2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>$H$12*H2</f>
         <v>-0.32739298293223956</v>
       </c>
-      <c r="J2">
-        <f>0.8+G2</f>
+      <c r="L2">
+        <f>0.8+I2</f>
         <v>0.8</v>
       </c>
-      <c r="K2">
-        <f>0.6+H2</f>
+      <c r="M2">
+        <f>0.6+J2</f>
         <v>0.6</v>
       </c>
-      <c r="L2">
-        <f>-0.72+I2</f>
+      <c r="N2">
+        <f>-0.72+K2</f>
         <v>-1.0473929829322395</v>
       </c>
-      <c r="M2">
-        <f>IF(C2,-LOG(E2),-LOG(1-E2))</f>
-        <v>0.17223860615919043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -569,40 +628,41 @@
         <f t="shared" ref="E3:E7" si="1">1/(1+EXP(-D3))</f>
         <v>0.47003594823542821</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="2">C3-E3</f>
+      <c r="F3">
+        <f>IF(C3,-LN(E3),-LN(1-E3))</f>
+        <v>0.63494610159561338</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="1">
+        <f>C3-E3</f>
         <v>-0.47003594823542821</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" si="3">$G$12*F3*A3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H7" si="4">$G$12*F3*B3</f>
+      <c r="I3" s="1">
+        <f>$H$12*H3*A3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>$H$12*H3*B3</f>
         <v>-0.47003594823542821</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I7" si="5">$G$12*F3</f>
+      <c r="K3" s="1">
+        <f>$H$12*H3</f>
         <v>-0.47003594823542821</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="6">0.8+G3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="2">0.8+I3</f>
         <v>0.8</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K7" si="7">0.6+H3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="3">0.6+J3</f>
         <v>0.12996405176457176</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L7" si="8">-0.72+I3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="4">-0.72+K3</f>
         <v>-1.1900359482354281</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M7" si="9">IF(C3=1,-LOG(E3),-LOG(1-E3))</f>
-        <v>0.2757535882289564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -620,40 +680,41 @@
         <f t="shared" si="1"/>
         <v>0.49000133312003458</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <f>IF(C4,-LN(E4),-LN(1-E4))</f>
+        <v>0.67334716722803412</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1">
+        <f>C4-E4</f>
+        <v>-0.49000133312003458</v>
+      </c>
+      <c r="I4" s="1">
+        <f>$H$12*H4*A4</f>
+        <v>-0.49000133312003458</v>
+      </c>
+      <c r="J4" s="1">
+        <f>$H$12*H4*B4</f>
+        <v>9.8000266624006918E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f>$H$12*H4</f>
+        <v>-0.49000133312003458</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="2"/>
-        <v>-0.49000133312003458</v>
-      </c>
-      <c r="G4" s="1">
+        <v>0.30999866687996547</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="3"/>
-        <v>-0.49000133312003458</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0.69800026662400694</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="4"/>
-        <v>9.8000266624006918E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.49000133312003458</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="6"/>
-        <v>0.30999866687996547</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="7"/>
-        <v>0.69800026662400694</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="8"/>
         <v>-1.2100013331200346</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="9"/>
-        <v>0.29243095913232137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -671,40 +732,41 @@
         <f t="shared" si="1"/>
         <v>0.6502185485738271</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <f>IF(C5,-LN(E5),-LN(1-E5))</f>
+        <v>0.43044674402949601</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1">
+        <f>C5-E5</f>
+        <v>0.3497814514261729</v>
+      </c>
+      <c r="I5" s="1">
+        <f>$H$12*H5*A5</f>
+        <v>0.3497814514261729</v>
+      </c>
+      <c r="J5" s="1">
+        <f>$H$12*H5*B5</f>
+        <v>0.31480330628355563</v>
+      </c>
+      <c r="K5" s="1">
+        <f>$H$12*H5</f>
+        <v>0.3497814514261729</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>0.3497814514261729</v>
-      </c>
-      <c r="G5" s="1">
+        <v>1.1497814514261728</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="3"/>
-        <v>0.3497814514261729</v>
-      </c>
-      <c r="H5" s="1">
+        <v>0.91480330628355566</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="4"/>
-        <v>0.31480330628355563</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.3497814514261729</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="6"/>
-        <v>1.1497814514261728</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="7"/>
-        <v>0.91480330628355566</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="8"/>
         <v>-0.37021854857382708</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="9"/>
-        <v>0.18694064568523164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -722,40 +784,41 @@
         <f t="shared" si="1"/>
         <v>0.51998934015558185</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
+        <f>IF(C6,-LN(E6),-LN(1-E6))</f>
+        <v>0.73394696731759013</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1">
+        <f>C6-E6</f>
+        <v>-0.51998934015558185</v>
+      </c>
+      <c r="I6" s="1">
+        <f>$H$12*H6*A6</f>
+        <v>-0.51998934015558185</v>
+      </c>
+      <c r="J6" s="1">
+        <f>$H$12*H6*B6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>$H$12*H6</f>
+        <v>-0.51998934015558185</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v>-0.51998934015558185</v>
-      </c>
-      <c r="G6" s="1">
+        <v>0.2800106598444182</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="3"/>
-        <v>-0.51998934015558185</v>
-      </c>
-      <c r="H6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.51998934015558185</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="6"/>
-        <v>0.2800106598444182</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="8"/>
         <v>-1.2399893401555819</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="9"/>
-        <v>0.31874911791565569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -773,97 +836,120 @@
         <f t="shared" si="1"/>
         <v>0.5149955016194101</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <f>IF(C7,-LN(E7),-LN(1-E7))</f>
+        <v>0.72359711307614094</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1">
+        <f>C7-E7</f>
+        <v>-0.5149955016194101</v>
+      </c>
+      <c r="I7" s="1">
+        <f>$H$12*H7*A7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f>$H$12*H7*B7</f>
+        <v>-0.66949415210523311</v>
+      </c>
+      <c r="K7" s="1">
+        <f>$H$12*H7</f>
+        <v>-0.5149955016194101</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>-0.5149955016194101</v>
-      </c>
-      <c r="G7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+        <v>-6.9494152105233131E-2</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="4"/>
-        <v>-0.66949415210523311</v>
-      </c>
-      <c r="I7" s="1">
+        <v>-1.2349955016194101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <f>AVERAGE(F2:F7)</f>
+        <v>0.59881302337118314</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(L2:L7)</f>
+        <v>0.68996512969175938</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:O8" si="5">AVERAGE(M2:M7)</f>
+        <v>0.47887891209448363</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="5"/>
-        <v>-0.5149955016194101</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="7"/>
-        <v>-6.9494152105233131E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="8"/>
-        <v>-1.2349955016194101</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="9"/>
-        <v>0.31425423333009134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <f>AVERAGE(J2:J7)</f>
-        <v>0.68996512969175938</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8:M8" si="10">AVERAGE(K2:K7)</f>
-        <v>0.47887891209448363</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="10"/>
         <v>-1.0487722757727536</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="10"/>
-        <v>0.26006119174190778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -874,25 +960,22 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f>A16*$J$8+B16*$K$8+$L$8</f>
+        <f>A16*$L$8+B16*$M$8+$N$8</f>
         <v>-1.0487722757727536</v>
       </c>
       <c r="E16" s="1">
         <f>1/(1+EXP(-D16))</f>
         <v>0.2594609272498507</v>
       </c>
-      <c r="F16" s="1">
-        <f>C16-E16</f>
-        <v>-0.2594609272498507</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G21" si="11">IF(C16=1,-LOG(E16),-LOG(1-E16))</f>
-        <v>0.13045202204201842</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="F16">
+        <f>IF(C16=1,-LN(E16),-LN(1-E16))</f>
+        <v>0.30037688130488227</v>
+      </c>
+      <c r="G16" s="9"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -903,25 +986,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D22" si="12">A17*$J$8+B17*$K$8+$L$8</f>
+        <f>A17*$L$8+B17*$M$8+$N$8</f>
         <v>-0.56989336367826993</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E22" si="13">1/(1+EXP(-D17))</f>
+        <f t="shared" ref="E17:E22" si="6">1/(1+EXP(-D17))</f>
         <v>0.3612614309899646</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" ref="F17:F21" si="14">C17-E17</f>
-        <v>-0.3612614309899646</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="11"/>
-        <v>0.19467685900640683</v>
-      </c>
-      <c r="H17" s="1"/>
+      <c r="F17">
+        <f>IF(C17=1,-LN(E17),-LN(1-E17))</f>
+        <v>0.44826003349905602</v>
+      </c>
+      <c r="G17" s="9"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -932,25 +1012,22 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="12"/>
+        <f>A18*$L$8+B18*$M$8+$N$8</f>
         <v>-0.4545829284998909</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.38827168786242167</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.38827168786242167</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="11"/>
-        <v>0.21344141892907637</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="F18">
+        <f>IF(C18=1,-LN(E18),-LN(1-E18))</f>
+        <v>0.49146702945358839</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -961,25 +1038,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="12"/>
+        <f>A19*$L$8+B19*$M$8+$N$8</f>
         <v>7.2183874804041093E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.51803813705396318</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="14"/>
-        <v>0.48196186294603682</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="11"/>
-        <v>0.28563826708407497</v>
-      </c>
-      <c r="H19" s="1"/>
+      <c r="F19">
+        <f>IF(C19=1,-LN(E19),-LN(1-E19))</f>
+        <v>0.65770641577644284</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -990,25 +1064,22 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="12"/>
+        <f>A20*$L$8+B20*$M$8+$N$8</f>
         <v>-0.35880714608099418</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.41124835287642264</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.41124835287642264</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="11"/>
-        <v>0.23006786485552291</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="F20">
+        <f>IF(C20=1,-LN(E20),-LN(1-E20))</f>
+        <v>0.52975083599329575</v>
+      </c>
+      <c r="G20" s="9"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1019,42 +1090,50 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="12"/>
+        <f>A21*$L$8+B21*$M$8+$N$8</f>
         <v>-0.42622969004992484</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.395027005231391</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.395027005231391</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="11"/>
-        <v>0.21826401127271836</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="F21">
+        <f>IF(C21=1,-LN(E21),-LN(1-E21))</f>
+        <v>0.50257145869364561</v>
+      </c>
+      <c r="G21" s="9"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1">
-        <f t="shared" si="12"/>
+        <f>A22*$L$8+B22*$M$8+$N$8</f>
         <v>-1.0487722757727536</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.2594609272498507</v>
       </c>
-      <c r="G22">
-        <f t="shared" ref="G22" si="15">AVERAGE(G16:G21)</f>
-        <v>0.21209007386496967</v>
-      </c>
-      <c r="I22" s="3"/>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22" si="7">AVERAGE(F16:F21)</f>
+        <v>0.48835544245348511</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:G9"/>
+    <mergeCell ref="G15:G23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>